--- a/data/01.entrada/people_file.xlsx
+++ b/data/01.entrada/people_file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>fullName</t>
   </si>
@@ -38,172 +38,175 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t>Isabelle Carvalho Correia</t>
-  </si>
-  <si>
-    <t>Brasília</t>
+    <t>Bianca Goncalves Correia</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo</t>
   </si>
   <si>
     <t>Brasil</t>
   </si>
   <si>
-    <t>IsabelleCarvalhoCorreia@rhyta.com</t>
-  </si>
-  <si>
-    <t>Quadra CLS 306 Bloco D, 1091</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>70353-540</t>
-  </si>
-  <si>
-    <t>Arthur Barbosa Rodrigues</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>ArthurBarbosaRodrigues@teleworm.us</t>
-  </si>
-  <si>
-    <t>Rua Torres Homem, 1058</t>
+    <t>BiancaGoncalvesCorreia@dayrep.com</t>
+  </si>
+  <si>
+    <t>Rua Rafael Tobias de Aguiar, 1386</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>11025-020</t>
-  </si>
-  <si>
-    <t>Leonor Castro Rodrigues</t>
-  </si>
-  <si>
-    <t>Taubaté</t>
-  </si>
-  <si>
-    <t>LeonorCastroRodrigues@rhyta.com</t>
-  </si>
-  <si>
-    <t>Rua Tenente-Polícia Militar Alexandre G. de Souza Lacerda, 637</t>
-  </si>
-  <si>
-    <t>12085-160</t>
-  </si>
-  <si>
-    <t>Lavinia Silva Castro</t>
-  </si>
-  <si>
-    <t>Sorocaba</t>
-  </si>
-  <si>
-    <t>LaviniaSilvaCastro@teleworm.us</t>
-  </si>
-  <si>
-    <t>Rua Valdir Gentil, 727</t>
-  </si>
-  <si>
-    <t>18047-630</t>
-  </si>
-  <si>
-    <t>Arthur Gomes Cunha</t>
-  </si>
-  <si>
-    <t>Campo Grande</t>
-  </si>
-  <si>
-    <t>ArthurGomesCunha@teleworm.us</t>
-  </si>
-  <si>
-    <t>Rua Doutor Osvaldo dos Santos, 200</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>79075-050</t>
-  </si>
-  <si>
-    <t>Estevan Araujo Dias</t>
-  </si>
-  <si>
-    <t>Uberaba</t>
-  </si>
-  <si>
-    <t>EstevanAraujoDias@armyspy.com</t>
-  </si>
-  <si>
-    <t>Rua Epitácio Pessoa, 1420</t>
+    <t>09862-370</t>
+  </si>
+  <si>
+    <t>Laura Barbosa Melo</t>
+  </si>
+  <si>
+    <t>Itu</t>
+  </si>
+  <si>
+    <t>LauraBarbosaMelo@armyspy.com</t>
+  </si>
+  <si>
+    <t>Rua Benedito Moreira Cafeara, 908</t>
+  </si>
+  <si>
+    <t>13311-033</t>
+  </si>
+  <si>
+    <t>Julian Martins Pinto</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>JulianMartinsPinto@teleworm.us</t>
+  </si>
+  <si>
+    <t>Rua dos Caicós, 53</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>59060-700</t>
+  </si>
+  <si>
+    <t>Marisa Santos Fernandes</t>
+  </si>
+  <si>
+    <t>Mogi das Cruzes</t>
+  </si>
+  <si>
+    <t>MarisaSantosFernandes@dayrep.com</t>
+  </si>
+  <si>
+    <t>Rua São Paulo, 1082</t>
+  </si>
+  <si>
+    <t>08850-080</t>
+  </si>
+  <si>
+    <t>Kaua Goncalves Fernandes</t>
+  </si>
+  <si>
+    <t>Gravatá</t>
+  </si>
+  <si>
+    <t>KauaGoncalvesFernandes@dayrep.com</t>
+  </si>
+  <si>
+    <t>Rua Fiscal Tito Pinto Marques, 434</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>55644-240</t>
+  </si>
+  <si>
+    <t>Lara Dias Oliveira</t>
+  </si>
+  <si>
+    <t>Uberlândia</t>
+  </si>
+  <si>
+    <t>LaraDiasOliveira@armyspy.com</t>
+  </si>
+  <si>
+    <t>Rua Mário Augusto Pinto, 1216</t>
   </si>
   <si>
     <t>MG</t>
   </si>
   <si>
-    <t>38010-290</t>
-  </si>
-  <si>
-    <t>Julia Gomes Rodrigues</t>
+    <t>38408-316</t>
+  </si>
+  <si>
+    <t>Clara Gomes Oliveira</t>
   </si>
   <si>
     <t>Duque de Caxias</t>
   </si>
   <si>
-    <t>JuliaGomesRodrigues@armyspy.com</t>
-  </si>
-  <si>
-    <t>Rua Jurunas, 1091</t>
+    <t>ClaraGomesOliveira@teleworm.us</t>
+  </si>
+  <si>
+    <t>Avenida Winston Churchill, 488</t>
   </si>
   <si>
     <t>RJ</t>
   </si>
   <si>
-    <t>25240-450</t>
-  </si>
-  <si>
-    <t>Julian Rocha Lima</t>
-  </si>
-  <si>
-    <t>Belo Horizonte</t>
-  </si>
-  <si>
-    <t>JulianRochaLima@rhyta.com</t>
-  </si>
-  <si>
-    <t>Rua Alan Kardec, 1122</t>
-  </si>
-  <si>
-    <t>30820-590</t>
-  </si>
-  <si>
-    <t>Tomás Silva Ribeiro</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
-    <t>TomasSilvaRibeiro@teleworm.us</t>
-  </si>
-  <si>
-    <t>Rua D, 548</t>
-  </si>
-  <si>
-    <t>32013-200</t>
-  </si>
-  <si>
-    <t>Marisa Cavalcanti Costa</t>
-  </si>
-  <si>
-    <t>Guarulhos</t>
-  </si>
-  <si>
-    <t>MarisaCavalcantiCosta@teleworm.us</t>
-  </si>
-  <si>
-    <t>Rua Manoel Telles Barreto, 1814</t>
-  </si>
-  <si>
-    <t>07055-130</t>
+    <t>25025-237</t>
+  </si>
+  <si>
+    <t>Emilly Araujo Pinto</t>
+  </si>
+  <si>
+    <t>Araguaína</t>
+  </si>
+  <si>
+    <t>EmillyAraujoPinto@rhyta.com</t>
+  </si>
+  <si>
+    <t>Rua 65, 1497</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>77815-050</t>
+  </si>
+  <si>
+    <t>Kauã Rocha Ferreira</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>KauaRochaFerreira@armyspy.com</t>
+  </si>
+  <si>
+    <t>Rua Monte Castelo, 946</t>
+  </si>
+  <si>
+    <t>51335-380</t>
+  </si>
+  <si>
+    <t>Kauan Santos Pinto</t>
+  </si>
+  <si>
+    <t>Tatuí</t>
+  </si>
+  <si>
+    <t>KauanSantosPinto@dayrep.com</t>
+  </si>
+  <si>
+    <t>Rua Maria Odete Mariano de Salles, 457</t>
+  </si>
+  <si>
+    <t>18274-016</t>
   </si>
 </sst>
 </file>
@@ -322,31 +325,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -370,7 +373,7 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -466,58 +469,58 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
